--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donggyulee/Desktop/Independent/Python/Chemical_Engineering_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A527E-453D-294F-BA1B-6E8E9290F4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB2DDD-7155-AA4E-96F4-3AC205B3E39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T=720K,P=6atm" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0E4F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -290,6 +296,20 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5896,8 +5916,8 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19125,8 +19145,8 @@
   </sheetPr>
   <dimension ref="A1:BT91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19780,133 +19800,133 @@
       <c r="BS5" s="17"/>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="1:72" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+    <row r="6" spans="1:72" s="30" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="31">
         <v>5.4010470000000002</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="31">
         <v>0.54010499999999995</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="31">
         <v>0.18346299999999999</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="31">
         <v>878.74568299999999</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="31">
         <v>3.2850980000000001</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="31">
         <v>878.74570000000006</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="31">
         <v>12.95739</v>
       </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
-        <v>0</v>
-      </c>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
-      <c r="O6" s="25">
+      <c r="J6" s="31">
+        <v>0</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
+        <v>0</v>
+      </c>
+      <c r="O6" s="31">
         <v>717.528369</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="31">
         <v>15.928520000000001</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="31">
         <v>691.42489999999998</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="31">
         <v>12.95739</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="31">
         <v>127.13760000000001</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="31">
         <v>10.71814</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="31">
         <v>10.71814</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="31">
         <v>25.695180000000001</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6" s="31">
         <v>187.32083</v>
       </c>
-      <c r="X6" s="25">
+      <c r="X6" s="31">
         <v>161.21719999999999</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="Y6" s="31">
         <v>256.46332999999998</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="Z6" s="31">
         <v>50.099130000000002</v>
       </c>
-      <c r="AA6" s="25">
+      <c r="AA6" s="31">
         <v>-2.7845252999999999</v>
       </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
-      <c r="BK6" s="15"/>
-      <c r="BL6" s="15"/>
-      <c r="BM6" s="16"/>
-      <c r="BN6" s="15"/>
-      <c r="BO6" s="15"/>
-      <c r="BP6" s="15"/>
-      <c r="BQ6" s="15"/>
-      <c r="BR6" s="17"/>
-      <c r="BS6" s="17"/>
-      <c r="BT6" s="18"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="32"/>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="35"/>
     </row>
     <row r="7" spans="1:72" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donggyulee/Desktop/Independent/Python/Chemical_Engineering_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB2DDD-7155-AA4E-96F4-3AC205B3E39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E78454-2208-1744-9A9D-6D794417E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17360" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T=720K,P=6atm" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,19 +304,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19143,10 +19138,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BT91"/>
+  <dimension ref="A1:BT88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19882,51 +19877,51 @@
       <c r="AA6" s="31">
         <v>-2.7845252999999999</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="32"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="34"/>
-      <c r="BS6" s="34"/>
-      <c r="BT6" s="35"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="31"/>
     </row>
     <row r="7" spans="1:72" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
@@ -24218,7 +24213,7 @@
       <c r="AY46" s="15"/>
       <c r="AZ46" s="15"/>
       <c r="BA46" s="15"/>
-      <c r="BB46" s="15"/>
+      <c r="BB46" s="19"/>
       <c r="BC46" s="15"/>
       <c r="BD46" s="15"/>
       <c r="BE46" s="15"/>
@@ -24440,7 +24435,7 @@
       <c r="AY49" s="15"/>
       <c r="AZ49" s="15"/>
       <c r="BA49" s="15"/>
-      <c r="BB49" s="19"/>
+      <c r="BB49" s="15"/>
       <c r="BC49" s="15"/>
       <c r="BD49" s="15"/>
       <c r="BE49" s="15"/>
@@ -27346,228 +27341,6 @@
       <c r="BS88" s="17"/>
       <c r="BT88" s="18"/>
     </row>
-    <row r="89" spans="1:72" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="15"/>
-      <c r="AA89" s="15"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="15"/>
-      <c r="AD89" s="15"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="15"/>
-      <c r="AN89" s="15"/>
-      <c r="AO89" s="15"/>
-      <c r="AP89" s="15"/>
-      <c r="AQ89" s="15"/>
-      <c r="AR89" s="15"/>
-      <c r="AS89" s="15"/>
-      <c r="AT89" s="15"/>
-      <c r="AU89" s="15"/>
-      <c r="AV89" s="15"/>
-      <c r="AW89" s="15"/>
-      <c r="AX89" s="15"/>
-      <c r="AY89" s="15"/>
-      <c r="AZ89" s="15"/>
-      <c r="BA89" s="15"/>
-      <c r="BB89" s="15"/>
-      <c r="BC89" s="15"/>
-      <c r="BD89" s="15"/>
-      <c r="BE89" s="15"/>
-      <c r="BF89" s="15"/>
-      <c r="BG89" s="15"/>
-      <c r="BH89" s="15"/>
-      <c r="BI89" s="15"/>
-      <c r="BJ89" s="15"/>
-      <c r="BK89" s="15"/>
-      <c r="BL89" s="15"/>
-      <c r="BM89" s="16"/>
-      <c r="BN89" s="15"/>
-      <c r="BO89" s="15"/>
-      <c r="BP89" s="15"/>
-      <c r="BQ89" s="15"/>
-      <c r="BR89" s="17"/>
-      <c r="BS89" s="17"/>
-      <c r="BT89" s="18"/>
-    </row>
-    <row r="90" spans="1:72" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
-      <c r="AA90" s="15"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="15"/>
-      <c r="AD90" s="15"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="15"/>
-      <c r="AJ90" s="15"/>
-      <c r="AK90" s="15"/>
-      <c r="AL90" s="15"/>
-      <c r="AM90" s="15"/>
-      <c r="AN90" s="15"/>
-      <c r="AO90" s="15"/>
-      <c r="AP90" s="15"/>
-      <c r="AQ90" s="15"/>
-      <c r="AR90" s="15"/>
-      <c r="AS90" s="15"/>
-      <c r="AT90" s="15"/>
-      <c r="AU90" s="15"/>
-      <c r="AV90" s="15"/>
-      <c r="AW90" s="15"/>
-      <c r="AX90" s="15"/>
-      <c r="AY90" s="15"/>
-      <c r="AZ90" s="15"/>
-      <c r="BA90" s="15"/>
-      <c r="BB90" s="15"/>
-      <c r="BC90" s="15"/>
-      <c r="BD90" s="15"/>
-      <c r="BE90" s="15"/>
-      <c r="BF90" s="15"/>
-      <c r="BG90" s="15"/>
-      <c r="BH90" s="15"/>
-      <c r="BI90" s="15"/>
-      <c r="BJ90" s="15"/>
-      <c r="BK90" s="15"/>
-      <c r="BL90" s="15"/>
-      <c r="BM90" s="16"/>
-      <c r="BN90" s="15"/>
-      <c r="BO90" s="15"/>
-      <c r="BP90" s="15"/>
-      <c r="BQ90" s="15"/>
-      <c r="BR90" s="17"/>
-      <c r="BS90" s="17"/>
-      <c r="BT90" s="18"/>
-    </row>
-    <row r="91" spans="1:72" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
-      <c r="AA91" s="15"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="15"/>
-      <c r="AD91" s="15"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="15"/>
-      <c r="AN91" s="15"/>
-      <c r="AO91" s="15"/>
-      <c r="AP91" s="15"/>
-      <c r="AQ91" s="15"/>
-      <c r="AR91" s="15"/>
-      <c r="AS91" s="15"/>
-      <c r="AT91" s="15"/>
-      <c r="AU91" s="15"/>
-      <c r="AV91" s="15"/>
-      <c r="AW91" s="15"/>
-      <c r="AX91" s="15"/>
-      <c r="AY91" s="15"/>
-      <c r="AZ91" s="15"/>
-      <c r="BA91" s="15"/>
-      <c r="BB91" s="15"/>
-      <c r="BC91" s="15"/>
-      <c r="BD91" s="15"/>
-      <c r="BE91" s="15"/>
-      <c r="BF91" s="15"/>
-      <c r="BG91" s="15"/>
-      <c r="BH91" s="15"/>
-      <c r="BI91" s="15"/>
-      <c r="BJ91" s="15"/>
-      <c r="BK91" s="15"/>
-      <c r="BL91" s="15"/>
-      <c r="BM91" s="16"/>
-      <c r="BN91" s="15"/>
-      <c r="BO91" s="15"/>
-      <c r="BP91" s="15"/>
-      <c r="BQ91" s="15"/>
-      <c r="BR91" s="17"/>
-      <c r="BS91" s="17"/>
-      <c r="BT91" s="18"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
